--- a/xlsx/nor_oda_disabilityinclusion_tenyear.xlsx
+++ b/xlsx/nor_oda_disabilityinclusion_tenyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfanene Figurdata1 og Figurdata2 viser data for øremerket bistand til å fremme inkludering av personer med nedsatt funksjonsevne, 2018-2023. Målt i utbetalinger (NOK mill.) og prosent hovedmål eller delmål av øremerket bistand</t>
+          <t>Arkfanene Figurdata1 og Figurdata2 viser data for øremerket bistand til å fremme inkludering av personer med nedsatt funksjonsevne, 2018-2024. Målt i utbetalinger (NOK mill.) og prosent hovedmål eller delmål av øremerket bistand</t>
         </is>
       </c>
     </row>
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.35547987574</v>
+        <v>0.35572167274</v>
       </c>
     </row>
     <row r="13">
@@ -557,6 +557,32 @@
       </c>
       <c r="C13">
         <v>2.62364351562</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2024</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hovedmål</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>0.3585240343</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Delmål</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>3.76677220491</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +592,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +675,21 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>2.97912339136</v>
+        <v>2.97936518836</v>
       </c>
       <c r="C7">
-        <v>0.06574757887228147</v>
+        <v>0.06575291519617282</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2024</v>
+      </c>
+      <c r="B8">
+        <v>4.12529623921</v>
+      </c>
+      <c r="C8">
+        <v>0.09842131421866263</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_disabilityinclusion_tenyear.xlsx
+++ b/xlsx/nor_oda_disabilityinclusion_tenyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfanene Figurdata1 og Figurdata2 viser data for øremerket bistand til å fremme inkludering av personer med nedsatt funksjonsevne, 2018-2024. Målt i utbetalinger (NOK mill.) og prosent hovedmål eller delmål av øremerket bistand</t>
+          <t>Arkfanene Figurdata1 og Figurdata2 inneholder data om norsk øremerket bistand til å fremme inkludering av personer med nedsatt funksjonsevne. 2018-2024. Målt i utbetalinger (NOK mill.) og prosent hovedmål eller delmål av øremerket bistand.</t>
         </is>
       </c>
     </row>
